--- a/biology/Médecine/Coloration_de_May-Grünwald_Giemsa/Coloration_de_May-Grünwald_Giemsa.xlsx
+++ b/biology/Médecine/Coloration_de_May-Grünwald_Giemsa/Coloration_de_May-Grünwald_Giemsa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coloration de May-Grünwald Giemsa, parfois également appelée coloration de Pappenheim  est une méthode de coloration utilisée notamment en hématologie pour différencier les cellules du sang lors des préparations cellulaires (cytologie). Les colorations de May-Grünwald, Giemsa, Leishmann sont des variétés de la méthode de Romanowsky (médecin russe, 1861-1921).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Principe de la coloration</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il repose sur l'action combinée de deux colorants neutres :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il repose sur l'action combinée de deux colorants neutres :
 Le May-Grünwald, contenant un colorant acide, l'éosine, et un colorant basique, le bleu de méthylène.
 Le Giemsa, contenant lui aussi de  l'éosine, et un colorant basique, l'azur de méthylène
 Ces deux colorants sont en solution dans l'alcool méthylique sous forme inactive. Lors de l'addition d'eau, les sels précipitent (éosinate de méthylène et azur de méthylène) et se fixent sélectivement sur les constituants cellulaires.
@@ -526,9 +540,43 @@
 les granulations des granulocytes éosinophiles sont orangé.
 Les granulations des granulocytes neutrophiles sont violet-lilas.
 Les granulations des granulocytes basophiles sont bleu-noir
-Les granulations des grands lymphocytes sont pourpres.
-Particularités
-Deux types de comportement des colorants coexistent dans cette coloration :
+Les granulations des grands lymphocytes sont pourpres.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Principe de la coloration</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Particularités</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux types de comportement des colorants coexistent dans cette coloration :
 -
 Coloration orthochromatique : le colorant garde sa couleur une fois fixé sur le constituant cellulaire (cas de l'éosinate de méthylène : couleur orange de l'éosine conservée, couleur bleue du bleu de méthylène conservée ).
 -
@@ -538,52 +586,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Technique</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mode opératoire ci-dessous est donné à titre indicatif. Il doit être adapté selon les spécifications du fabricant.
-Fixation
-Il faut d'abord fixer les cellules sanguines présentes sur le frottis. Pour cela placer le frottis horizontalement dans une boîte de coloration et verser 15 à 20 gouttes de colorant May-Grünwald de façon à recouvrir totalement la lame. Attendre 2 à 3 minutes pour que le méthanol fixe les cellules.
-Coloration May-Grünwald
-Ajouter autant d'eau neutre qu'il y a eu de colorant, laisser agir deux minutes et rincer la lame à l'eau neutre.
-Coloration au Giemsa
-Diluer le Giemsa immédiatement avant l'utilisation en le diluant au 1/10 (1 volume de Giemsa et 9 volumes d'eau neutre) dans une éprouvette. Verser le contenu dans une boîte de Laveran dès que la lame est prête et mélanger en agitant doucement (le pouvoir du colorant est maximal au moment du mélange). Poser la lame, face frottis vers le fond de la boîte de Laveran. Laisser agir 20 min et rincer à l'eau distillée.
-Séchage
-Laisser la lame sécher à l'air. Attendre le séchage complet avant observation au microscope.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -598,10 +607,193 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mode opératoire ci-dessous est donné à titre indicatif. Il doit être adapté selon les spécifications du fabricant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fixation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il faut d'abord fixer les cellules sanguines présentes sur le frottis. Pour cela placer le frottis horizontalement dans une boîte de coloration et verser 15 à 20 gouttes de colorant May-Grünwald de façon à recouvrir totalement la lame. Attendre 2 à 3 minutes pour que le méthanol fixe les cellules.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Coloration May-Grünwald</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ajouter autant d'eau neutre qu'il y a eu de colorant, laisser agir deux minutes et rincer la lame à l'eau neutre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Coloration au Giemsa</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diluer le Giemsa immédiatement avant l'utilisation en le diluant au 1/10 (1 volume de Giemsa et 9 volumes d'eau neutre) dans une éprouvette. Verser le contenu dans une boîte de Laveran dès que la lame est prête et mélanger en agitant doucement (le pouvoir du colorant est maximal au moment du mélange). Poser la lame, face frottis vers le fond de la boîte de Laveran. Laisser agir 20 min et rincer à l'eau distillée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Technique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Séchage</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laisser la lame sécher à l'air. Attendre le séchage complet avant observation au microscope.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Coloration_de_May-Grünwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coloration_de_May-Gr%C3%BCnwald_Giemsa</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Observation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
